--- a/data/trans_dic/P16B02-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16B02-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>46,26; 71,77</t>
+          <t>46,5; 72,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>62,0; 85,11</t>
+          <t>60,91; 84,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>43,26; 66,24</t>
+          <t>45,27; 66,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>57,3; 81,0</t>
+          <t>56,32; 79,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>56,24; 77,27</t>
+          <t>56,42; 77,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>49,57; 71,58</t>
+          <t>50,02; 70,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>54,54; 72,75</t>
+          <t>55,44; 72,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>60,43; 77,68</t>
+          <t>62,09; 78,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>49,84; 65,56</t>
+          <t>49,31; 65,89</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>66,94; 89,75</t>
+          <t>67,7; 89,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>70,72; 88,74</t>
+          <t>70,2; 87,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>48,73; 74,13</t>
+          <t>48,04; 73,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>67,41; 86,18</t>
+          <t>68,38; 85,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>57,18; 75,78</t>
+          <t>57,18; 76,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>50,31; 70,34</t>
+          <t>50,68; 71,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>71,31; 85,74</t>
+          <t>70,64; 85,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>65,46; 79,18</t>
+          <t>65,5; 79,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>53,3; 69,77</t>
+          <t>53,32; 69,31</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>67,16; 87,83</t>
+          <t>69,13; 87,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69,06; 84,45</t>
+          <t>70,17; 84,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>55,19; 74,15</t>
+          <t>55,47; 74,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>56,69; 86,47</t>
+          <t>58,43; 86,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>63,12; 84,68</t>
+          <t>63,95; 83,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>64,26; 87,74</t>
+          <t>63,09; 87,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>69,84; 85,59</t>
+          <t>69,27; 85,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>70,43; 82,19</t>
+          <t>70,65; 82,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>61,11; 76,65</t>
+          <t>61,88; 76,92</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>76,05; 86,82</t>
+          <t>76,08; 86,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>67,88; 79,91</t>
+          <t>68,83; 80,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>61,47; 73,99</t>
+          <t>60,39; 73,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>79,39; 90,76</t>
+          <t>80,56; 91,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>75,65; 85,38</t>
+          <t>74,92; 85,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>65,38; 77,38</t>
+          <t>64,88; 77,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>79,32; 87,3</t>
+          <t>79,35; 87,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>73,77; 81,71</t>
+          <t>73,77; 81,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>65,29; 73,81</t>
+          <t>65,56; 73,89</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>65,16; 88,24</t>
+          <t>63,85; 87,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>68,56; 86,35</t>
+          <t>69,85; 87,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>73,96; 88,2</t>
+          <t>74,12; 88,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>74,34; 87,7</t>
+          <t>74,86; 87,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>78,51; 87,76</t>
+          <t>78,23; 87,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>77,45; 87,03</t>
+          <t>77,09; 86,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>75,08; 85,91</t>
+          <t>74,34; 86,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>78,36; 86,43</t>
+          <t>78,06; 86,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>78,15; 85,9</t>
+          <t>78,03; 86,04</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>41,1; 85,22</t>
+          <t>46,25; 89,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>34,5; 79,56</t>
+          <t>38,3; 79,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>32,14; 67,23</t>
+          <t>33,37; 67,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>85,48; 92,46</t>
+          <t>85,41; 92,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>77,42; 85,37</t>
+          <t>77,21; 85,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>75,36; 84,13</t>
+          <t>75,12; 84,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>84,36; 91,38</t>
+          <t>84,43; 91,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>76,86; 84,64</t>
+          <t>76,74; 84,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>72,77; 81,42</t>
+          <t>72,48; 81,41</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>73,25; 81,24</t>
+          <t>73,37; 81,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>72,48; 79,66</t>
+          <t>72,53; 79,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>62,88; 70,57</t>
+          <t>62,83; 70,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>81,01; 86,11</t>
+          <t>81,03; 86,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>76,84; 81,57</t>
+          <t>76,7; 81,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>72,87; 78,21</t>
+          <t>72,84; 78,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>79,36; 83,93</t>
+          <t>79,26; 83,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>76,37; 80,41</t>
+          <t>76,2; 80,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>69,98; 74,67</t>
+          <t>70,08; 74,48</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyas medicinas para el dolor/bajar la fiebre fueron recetadas por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>33845</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>40918</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>46862</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>43397</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>54029</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>47784</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>77242</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>94948</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>94645</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>26338; 41030</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>33477; 46576</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>38155; 56008</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>35179; 49671</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>45587; 62374</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>39417; 55882</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>66039; 86570</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>84295; 106000</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>80416; 107450</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>46369</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>60665</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>39460</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>64900</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>72950</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>57801</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>111269</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>133615</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>97260</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>38957; 51512</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>53158; 66382</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>31013; 47500</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>56929; 71526</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>62089; 83520</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>47884; 67472</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>99466; 119804</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>120716; 145876</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>84798; 110215</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>55919</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>102318</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>65919</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>28652</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>55129</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>45649</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>84571</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>157448</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>111568</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>48314; 61493</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>92183; 111485</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>55991; 74741</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>22507; 33392</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>46836; 61415</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>37103; 51499</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>75092; 92747</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>144544; 168449</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>98857; 122879</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>163347</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>175379</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>152671</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>133801</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>185701</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>167635</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>297148</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>361080</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>320306</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>152178; 173467</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>161475; 188955</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>136325; 166089</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>125309; 141772</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>171727; 196683</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>152192; 182052</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>282160; 309685</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>342126; 379949</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>301786; 340144</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>37631</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>71730</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>95723</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>125129</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>243437</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>214008</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>162760</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>315167</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>309732</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>31057; 42398</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>63481; 79320</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>86012; 103025</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>114341; 133743</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>227422; 255631</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>200045; 224706</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>149705; 173189</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>297849; 329729</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>293016; 323114</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>11699</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>11302</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>19078</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>275075</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>329464</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>281008</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>286775</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>340767</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>300086</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>7945; 15292</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>7291; 15139</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>12611; 25647</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>263258; 284688</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>310636; 343268</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>263143; 295385</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>274748; 297554</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>323352; 356439</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>281283; 315949</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>868</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>741</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1007</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1295</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1147</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>348811</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>462313</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>419712</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>670954</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>940711</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>813884</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1019765</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1403024</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1233596</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>330085; 365092</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>439925; 483982</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>395402; 444389</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>648815; 690276</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>908821; 970185</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>784114; 842669</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>991292; 1045997</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1365161; 1438187</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1195479; 1270382</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P16B02-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16B02-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
